--- a/mySystem/mySystem/xls/tuihuo/表5产品退货接请验单.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表5产品退货接请验单.xlsx
@@ -240,12 +240,24 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,19 +268,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,79 +563,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -648,5 +648,12 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="11" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>